--- a/整理表格/核算损失.xlsx
+++ b/整理表格/核算损失.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/整理表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9B71C-A6FC-F34B-80F4-958CFB8EAE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28E9D6-32A9-0041-991D-3D9B8883D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{C6B16841-51FF-5B47-9BB5-4AA0BA5CEDD7}"/>
   </bookViews>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>获得/转入/买入/折算获得，为正。</t>
-  </si>
-  <si>
-    <t>附录1，现货交易数据（操作者，黑客）</t>
   </si>
   <si>
     <t>2023-03-20 17:49:08</t>
@@ -389,6 +386,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>王天佑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>附录</t>
     </r>
@@ -397,7 +398,7 @@
         <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
-        <rFont val="Cambria"/>
+        <rFont val="Helvetica Neue"/>
         <family val="1"/>
       </rPr>
       <t>2</t>
@@ -410,12 +411,34 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>，合约历史委托记录简版（去除合约交易和交易手续费）</t>
+      <t>，合约账户“导出全部历史资金流水”简版（筛选去除所有“类型“为”已实现盈亏”和“手续费”的数据）</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王天佑</t>
+    <r>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>，现货历史成交记录（操作者，黑客）</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +450,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,6 +550,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -616,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,25 +710,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,9 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE467D-A1E5-0140-A143-50D599353B0C}">
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1045,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="34">
       <c r="A1" s="18" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>72</v>
@@ -1082,7 +1098,7 @@
     </row>
     <row r="3" spans="1:24" ht="20">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1111,7 +1127,7 @@
     </row>
     <row r="4" spans="1:24" ht="34">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1142,7 +1158,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1174,7 +1190,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1208,7 +1224,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1242,7 +1258,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1277,7 +1293,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1311,7 +1327,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1345,7 +1361,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1379,7 +1395,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -1413,7 +1429,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -1447,7 +1463,7 @@
     </row>
     <row r="14" spans="1:24" ht="34">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1477,7 +1493,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1509,7 +1525,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1542,7 +1558,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -1575,7 +1591,7 @@
     </row>
     <row r="18" spans="1:11" ht="34">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1630,8 +1646,8 @@
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>81</v>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>54</v>
@@ -1657,11 +1673,11 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>89</v>
+      <c r="F21" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -1681,8 +1697,8 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>89</v>
+      <c r="F22" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>56</v>
@@ -1707,8 +1723,8 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>89</v>
+      <c r="F23" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>54</v>
@@ -1734,8 +1750,8 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>89</v>
+      <c r="F24" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>10</v>
@@ -1761,8 +1777,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>89</v>
+      <c r="F25" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>23</v>
@@ -1788,8 +1804,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>89</v>
+      <c r="F26" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>25</v>
@@ -1815,11 +1831,11 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>89</v>
+      <c r="F27" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="16"/>
     </row>
@@ -1839,8 +1855,8 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>89</v>
+      <c r="F28" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>61</v>
@@ -1865,14 +1881,14 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>89</v>
+      <c r="F29" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K29" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J29)</f>
+        <f t="shared" ref="K29:K37" si="0">SUMIFS($K$6:$K$26,$J$6:$J$26,$J29)</f>
         <v>330.672141869999</v>
       </c>
     </row>
@@ -1892,20 +1908,20 @@
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>89</v>
+      <c r="F30" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J30)</f>
+        <f t="shared" si="0"/>
         <v>-0.54071533000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
@@ -1919,20 +1935,20 @@
       <c r="E31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>80</v>
+      <c r="F31" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K31" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J31)</f>
+        <f t="shared" si="0"/>
         <v>-7.4566166300000001</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -1946,20 +1962,20 @@
       <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>80</v>
+      <c r="F32" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K32" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J32)</f>
+        <f t="shared" si="0"/>
         <v>-15.32907279</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
@@ -1973,20 +1989,20 @@
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>80</v>
+      <c r="F33" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>48</v>
       </c>
       <c r="K33" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J33)</f>
+        <f t="shared" si="0"/>
         <v>-5174.8999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
@@ -2000,20 +2016,20 @@
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>80</v>
+      <c r="F34" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K34" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J34)</f>
+        <f t="shared" si="0"/>
         <v>-1625.2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -2027,20 +2043,20 @@
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>80</v>
+      <c r="F35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J35)</f>
+        <f t="shared" si="0"/>
         <v>-22861</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -2054,20 +2070,20 @@
       <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>80</v>
+      <c r="F36" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K36" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J36)</f>
+        <f t="shared" si="0"/>
         <v>-216.7</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
@@ -2081,20 +2097,20 @@
       <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>80</v>
+      <c r="F37" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="K37" s="10">
-        <f>SUMIFS($K$6:$K$26,$J$6:$J$26,$J37)</f>
+        <f t="shared" si="0"/>
         <v>-117682495</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -2108,11 +2124,11 @@
       <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>80</v>
+      <c r="F38" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="16"/>
     </row>
@@ -2132,8 +2148,8 @@
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>80</v>
+      <c r="F39" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>59</v>
@@ -2158,8 +2174,8 @@
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>80</v>
+      <c r="F40" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>9</v>
@@ -2185,8 +2201,8 @@
       <c r="E41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>80</v>
+      <c r="F41" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>51</v>
@@ -2212,8 +2228,8 @@
       <c r="E42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>80</v>
+      <c r="F42" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>23</v>
@@ -2239,8 +2255,8 @@
       <c r="E43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>80</v>
+      <c r="F43" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
@@ -2252,7 +2268,7 @@
     </row>
     <row r="44" spans="1:11" ht="34">
       <c r="J44" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="16"/>
     </row>
@@ -2278,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" ref="K47:K48" si="0">-($K$29/$K$40)*$K42</f>
+        <f t="shared" ref="K47:K48" si="1">-($K$29/$K$40)*$K42</f>
         <v>7.7396619368349337E-2</v>
       </c>
     </row>
@@ -2287,13 +2303,13 @@
         <v>10</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13663643700160158</v>
       </c>
     </row>
     <row r="49" spans="10:15" ht="34">
       <c r="J49" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K49" s="16"/>
     </row>
@@ -2319,7 +2335,7 @@
         <v>50</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" ref="K52:K53" si="1">-SUM(K47,K31)</f>
+        <f t="shared" ref="K52:K53" si="2">-SUM(K47,K31)</f>
         <v>7.3792200106316503</v>
       </c>
     </row>
@@ -2328,7 +2344,7 @@
         <v>49</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.192436352998397</v>
       </c>
     </row>
@@ -2380,7 +2396,7 @@
     </row>
     <row r="59" spans="10:15" ht="34">
       <c r="J59" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
@@ -2413,19 +2429,19 @@
         <v>25</v>
       </c>
       <c r="K61" s="10">
-        <f>$K51*$O61/$O$61</f>
+        <f t="shared" ref="K61:K68" si="3">$K51*$O61/$O$61</f>
         <v>0.53510656225263042</v>
       </c>
       <c r="L61" s="10">
-        <f>$K51*$O61/$O$62</f>
+        <f t="shared" ref="L61:L68" si="4">$K51*$O61/$O$62</f>
         <v>8.4360224911620154</v>
       </c>
       <c r="M61" s="10">
-        <f>$K51*$O61/$O$63</f>
+        <f t="shared" ref="M61:M68" si="5">$K51*$O61/$O$63</f>
         <v>43.966211711487716</v>
       </c>
       <c r="N61" s="10">
-        <f>$K51*$O61</f>
+        <f t="shared" ref="N61:N68" si="6">$K51*$O61</f>
         <v>14851.786316140551</v>
       </c>
       <c r="O61" s="14">
@@ -2438,19 +2454,19 @@
         <v>23</v>
       </c>
       <c r="K62" s="10">
-        <f>$K52*$O62/$O$61</f>
+        <f t="shared" si="3"/>
         <v>0.46807237132567364</v>
       </c>
       <c r="L62" s="10">
-        <f>$K52*$O62/$O$62</f>
+        <f t="shared" si="4"/>
         <v>7.3792200106316503</v>
       </c>
       <c r="M62" s="10">
-        <f>$K52*$O62/$O$63</f>
+        <f t="shared" si="5"/>
         <v>38.458450009228038</v>
       </c>
       <c r="N62" s="10">
-        <f>$K52*$O62</f>
+        <f t="shared" si="6"/>
         <v>12991.264413117233</v>
       </c>
       <c r="O62" s="14">
@@ -2463,19 +2479,19 @@
         <v>10</v>
       </c>
       <c r="K63" s="10">
-        <f>$K53*$O63/$O$61</f>
+        <f t="shared" si="3"/>
         <v>0.18490500028617946</v>
       </c>
       <c r="L63" s="10">
-        <f>$K53*$O63/$O$62</f>
+        <f t="shared" si="4"/>
         <v>2.9150506668727756</v>
       </c>
       <c r="M63" s="10">
-        <f>$K53*$O63/$O$63</f>
+        <f t="shared" si="5"/>
         <v>15.192436352998399</v>
       </c>
       <c r="N63" s="10">
-        <f>$K53*$O63</f>
+        <f t="shared" si="6"/>
         <v>5132.0050000428591</v>
       </c>
       <c r="O63" s="14">
@@ -2488,19 +2504,19 @@
         <v>47</v>
       </c>
       <c r="K64" s="10">
-        <f>$K54*$O64/$O$61</f>
+        <f t="shared" si="3"/>
         <v>6.2516851847715091E-2</v>
       </c>
       <c r="L64" s="10">
-        <f>$K54*$O64/$O$62</f>
+        <f t="shared" si="4"/>
         <v>0.98558605980051339</v>
       </c>
       <c r="M64" s="10">
-        <f>$K54*$O64/$O$63</f>
+        <f t="shared" si="5"/>
         <v>5.1366014505624626</v>
       </c>
       <c r="N64" s="10">
-        <f>$K54*$O64</f>
+        <f t="shared" si="6"/>
         <v>1735.1439699999999</v>
       </c>
       <c r="O64" s="14">
@@ -2513,19 +2529,19 @@
         <v>45</v>
       </c>
       <c r="K65" s="10">
-        <f>$K55*$O65/$O$61</f>
+        <f t="shared" si="3"/>
         <v>6.6185389060350611E-2</v>
       </c>
       <c r="L65" s="10">
-        <f>$K55*$O65/$O$62</f>
+        <f t="shared" si="4"/>
         <v>1.043421011973735</v>
       </c>
       <c r="M65" s="10">
-        <f>$K55*$O65/$O$63</f>
+        <f t="shared" si="5"/>
         <v>5.4380211959739491</v>
       </c>
       <c r="N65" s="10">
-        <f>$K55*$O65</f>
+        <f t="shared" si="6"/>
         <v>1836.9635600000001</v>
       </c>
       <c r="O65" s="14">
@@ -2538,19 +2554,19 @@
         <v>43</v>
       </c>
       <c r="K66" s="10">
-        <f>$K56*$O66/$O$61</f>
+        <f t="shared" si="3"/>
         <v>5.9642433638553594E-2</v>
       </c>
       <c r="L66" s="10">
-        <f>$K56*$O66/$O$62</f>
+        <f t="shared" si="4"/>
         <v>0.94027049394497075</v>
       </c>
       <c r="M66" s="10">
-        <f>$K56*$O66/$O$63</f>
+        <f t="shared" si="5"/>
         <v>4.9004292776791001</v>
       </c>
       <c r="N66" s="10">
-        <f>$K56*$O66</f>
+        <f t="shared" si="6"/>
         <v>1655.36501</v>
       </c>
       <c r="O66" s="14">
@@ -2563,19 +2579,19 @@
         <v>41</v>
       </c>
       <c r="K67" s="10">
-        <f>$K57*$O67/$O$61</f>
+        <f t="shared" si="3"/>
         <v>4.8711946249336148E-2</v>
       </c>
       <c r="L67" s="10">
-        <f>$K57*$O67/$O$62</f>
+        <f t="shared" si="4"/>
         <v>0.76794998068752407</v>
       </c>
       <c r="M67" s="10">
-        <f>$K57*$O67/$O$63</f>
+        <f t="shared" si="5"/>
         <v>4.0023425103611601</v>
       </c>
       <c r="N67" s="10">
-        <f>$K57*$O67</f>
+        <f t="shared" si="6"/>
         <v>1351.9912999999999</v>
       </c>
       <c r="O67" s="14">
@@ -2588,19 +2604,19 @@
         <v>39</v>
       </c>
       <c r="K68" s="10">
-        <f>$K58*$O68/$O$61</f>
+        <f t="shared" si="3"/>
         <v>4.4520778643132974E-2</v>
       </c>
       <c r="L68" s="10">
-        <f>$K58*$O68/$O$62</f>
+        <f t="shared" si="4"/>
         <v>0.70187569439710995</v>
       </c>
       <c r="M68" s="10">
-        <f>$K58*$O68/$O$63</f>
+        <f t="shared" si="5"/>
         <v>3.6579816385435167</v>
       </c>
       <c r="N68" s="10">
-        <f>$K58*$O68</f>
+        <f t="shared" si="6"/>
         <v>1235.6661975</v>
       </c>
       <c r="O68" s="14">
@@ -2636,100 +2652,100 @@
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="10:13">
-      <c r="J89" s="27"/>
+      <c r="J89" s="13"/>
       <c r="M89" s="13"/>
     </row>
     <row r="90" spans="10:13">
-      <c r="J90" s="27"/>
-      <c r="K90" s="26"/>
+      <c r="J90" s="13"/>
+      <c r="K90"/>
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="10:13">
-      <c r="J91" s="27"/>
-      <c r="K91" s="26"/>
+      <c r="J91" s="13"/>
+      <c r="K91"/>
       <c r="M91" s="13"/>
     </row>
     <row r="92" spans="10:13">
-      <c r="J92" s="27"/>
-      <c r="K92" s="26"/>
+      <c r="J92" s="13"/>
+      <c r="K92"/>
       <c r="M92" s="13"/>
     </row>
     <row r="93" spans="10:13">
-      <c r="J93" s="27"/>
-      <c r="M93" s="25"/>
+      <c r="J93" s="13"/>
+      <c r="M93" s="23"/>
     </row>
     <row r="94" spans="10:13">
-      <c r="J94" s="27"/>
-      <c r="K94" s="26"/>
+      <c r="J94" s="13"/>
+      <c r="K94"/>
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="10:13">
-      <c r="J95" s="27"/>
-      <c r="K95" s="26"/>
+      <c r="J95" s="13"/>
+      <c r="K95"/>
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="10:13">
-      <c r="J96" s="27"/>
+      <c r="J96" s="13"/>
       <c r="M96" s="13"/>
     </row>
     <row r="97" spans="10:13">
-      <c r="J97" s="27"/>
+      <c r="J97" s="13"/>
       <c r="M97" s="13"/>
     </row>
     <row r="98" spans="10:13">
-      <c r="J98" s="27"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="10:13">
-      <c r="J99" s="27"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="10:13">
-      <c r="J100" s="27"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="10:13">
-      <c r="J101" s="27"/>
-      <c r="K101" s="26"/>
+      <c r="J101" s="13"/>
+      <c r="K101"/>
     </row>
     <row r="102" spans="10:13">
-      <c r="J102" s="27"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="10:13">
-      <c r="J103" s="27"/>
+      <c r="J103" s="13"/>
     </row>
     <row r="104" spans="10:13">
-      <c r="J104" s="27"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="10:13">
       <c r="J105" s="13"/>
     </row>
     <row r="118" spans="10:10">
-      <c r="J118" s="24"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="120" spans="10:10">
-      <c r="J120" s="24"/>
+      <c r="J120" s="22"/>
     </row>
     <row r="121" spans="10:10">
-      <c r="J121" s="24"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="10:10">
-      <c r="J122" s="24"/>
+      <c r="J122" s="22"/>
     </row>
     <row r="123" spans="10:10">
-      <c r="J123" s="24"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="10:10">
-      <c r="J124" s="24"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="10:10">
-      <c r="J125" s="24"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="10:10">
-      <c r="J126" s="24"/>
+      <c r="J126" s="22"/>
     </row>
     <row r="127" spans="10:10">
-      <c r="J127" s="24"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" spans="10:10">
-      <c r="J128" s="24"/>
+      <c r="J128" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
